--- a/project_vtiger/src/test/resources/TEST_DATA.xlsx
+++ b/project_vtiger/src/test/resources/TEST_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarun\git\repository\project_vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8234C52-2211-444E-8CC7-CCFC161A4ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F0B9B-7F58-47DF-A4E2-5D7DD1FA80B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,7 +2485,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>253</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>284</v>
       </c>

--- a/project_vtiger/src/test/resources/TEST_DATA.xlsx
+++ b/project_vtiger/src/test/resources/TEST_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarun\git\repository\project_vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F0B9B-7F58-47DF-A4E2-5D7DD1FA80B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F23B73-4659-4D5F-88C9-D879C0F01522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Product" sheetId="4" r:id="rId5"/>
     <sheet name="opportunties" sheetId="6" r:id="rId6"/>
+    <sheet name="Documentation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="298">
   <si>
     <t>Organization Name</t>
   </si>
@@ -900,6 +901,30 @@
   </si>
   <si>
     <t>Performance and load testing using JMeter</t>
+  </si>
+  <si>
+    <t>Documentation Title</t>
+  </si>
+  <si>
+    <t>Automation of Opportunity Creation Using Selenium WebDriver</t>
+  </si>
+  <si>
+    <t>End-to-End Testing of Opportunities Module</t>
+  </si>
+  <si>
+    <t>Selenium Test Automation for CRM Opportunities Workflow</t>
+  </si>
+  <si>
+    <t>Automated Validation of Opportunity Creation Process</t>
+  </si>
+  <si>
+    <t>Data-Driven Testing of Opportunities Module Using Selenium</t>
+  </si>
+  <si>
+    <t>TestNG-Based Automation of Opportunity Lifecycle</t>
+  </si>
+  <si>
+    <t>Verification of Opportunity Creation Using Page Object Model</t>
   </si>
 </sst>
 </file>
@@ -951,7 +976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -974,12 +999,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1027,6 +1114,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2484,7 +2589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC61EACE-CB6E-4D3B-AE4C-068FEF00CDB6}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +2773,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>277</v>
       </c>
@@ -2748,6 +2853,89 @@
       </c>
       <c r="M6" s="13" t="s">
         <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62060AC0-4A3A-4F99-B515-B5528164C2C7}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
